--- a/biology/Botanique/Johann_Christian_Mikan/Johann_Christian_Mikan.xlsx
+++ b/biology/Botanique/Johann_Christian_Mikan/Johann_Christian_Mikan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Christian Mikan, né le 5 décembre 1769 à Teplitz et mort le 28 décembre 1844 à Prague, est un médecin et naturaliste bohémien, sujet de l'empire d'Autriche. Il est le fils du botaniste Joseph Gottfried Mikan (1743-1814).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikan est docteur en médecine en 1793 de l'université de Prague, puis pratique quelques années et étudie l'entomologie et la botanique. Il devient professeur de botanique à cette même université en 1796, puis professeur d'histoire naturelle en 1800. En 1811, il effectue un voyage en Espagne, à Malte et aux Baléares.
 C'est l'un des trois dirigeants de l'équipe scientifique de l'expédition scientifique autrichienne au Brésil qui part en 1817. Il se fait accompagner de son assistant, Johann Baptist Emanuel Pohl. Mikan retourne au bout d'un an en Autriche, laissant Pohl au Brésil, après avoir parcouru les régions de Rio de Janeiro et de Sao Paulo. Ses collections se trouvent aujourd'hui au Muséum d'histoire naturelle de Vienne.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikan est l'auteur d'une monographie intitulée Monographia Bombyliorum Bohemiæ, iconibus illustrata (1796); ainsi que d'un ouvrage d'entomologie, Entomologische Beobachtungen, Berichtigungen und Entdeckungen (1797) ; il fait paraître à son retour du Brésil Delectus florae et faunae brasiliensis en 1820. Il a de plus fait paraître en 1797 les Opuscula botanici argumenti de Rudolf Jakob Camerarius.
 </t>
